--- a/biology/Zoologie/Arturia_(éponge)/Arturia_(éponge).xlsx
+++ b/biology/Zoologie/Arturia_(éponge)/Arturia_(éponge).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arturia_(%C3%A9ponge)</t>
+          <t>Arturia_(éponge)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arturia[2] est un genre d'éponge calcaire de la famille des Clathrinidae. L'espèce type est Arthuria hirsuta.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arturia est un genre d'éponge calcaire de la famille des Clathrinidae. L'espèce type est Arthuria hirsuta.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arturia_(%C3%A9ponge)</t>
+          <t>Arturia_(éponge)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calcinea dans lequel le cormus constitue un corps typique clathroïde. Une tige peut être présente. Le squelette contient habituellement (equiangular et equiradiate) des triactines et tétractines équiangulaires et à rayons réguliers. Cependant, les tétractines sont plus rares. Des diactines sont parfois présentes. Le système aquifère adopte une forme asconoïde[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calcinea dans lequel le cormus constitue un corps typique clathroïde. Une tige peut être présente. Le squelette contient habituellement (equiangular et equiradiate) des triactines et tétractines équiangulaires et à rayons réguliers. Cependant, les tétractines sont plus rares. Des diactines sont parfois présentes. Le système aquifère adopte une forme asconoïde.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arturia_(%C3%A9ponge)</t>
+          <t>Arturia_(éponge)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (4 février 2017)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (4 février 2017) :
 Arthuria adusta (Wörheide &amp; Hooper, 1999)
 Arthuria africana (Klautau &amp; Valentine, 2003)
 Arthuria alcatraziensis (Lanna, Rossi, Cavalcanti, Hajdu &amp; Klautau, 2007)
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arturia_(%C3%A9ponge)</t>
+          <t>Arturia_(éponge)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Arturia a été choisi en l'honneur de Arthur Dendy (1825-1925), zoologiste britannique et éminent chercheur d'éponges calcaires.
 </t>
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Arturia_(%C3%A9ponge)</t>
+          <t>Arturia_(éponge)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,7 +635,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Fernanda Azevedo, André Padua, Fernando Moraes, André Rossi, Guilherme Muricy et Michelle Klautau, « Taxonomy and phylogeny of calcareous sponges (Porifera: Calcarea: Calcinea) from Brazilian mid-shelf and oceanic islands », Zootaxa, Magnolia Press (d), vol. 4311, no 3,‎ 24 août 2017, p. 301–344 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.4311.3.1)</t>
         </is>
